--- a/docs/new_tests.xlsx
+++ b/docs/new_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\PycharmProjects\G82.T08.FP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40467819-EDC4-4A00-9300-3E767F74C601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81A136-2320-4AB1-8582-E6982E435E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10896" windowHeight="8964" tabRatio="573" activeTab="1" xr2:uid="{91915A6D-C9D7-4EAF-B884-C2E71267B661}"/>
+    <workbookView xWindow="2970" yWindow="-11640" windowWidth="20730" windowHeight="11160" tabRatio="573" xr2:uid="{91915A6D-C9D7-4EAF-B884-C2E71267B661}"/>
   </bookViews>
   <sheets>
     <sheet name="revocation" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323051EA-52F9-4192-96A8-C0728D622E20}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1380,7 +1380,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884377E8-6048-4856-9579-5C979CA06C88}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B37"/>
     </sheetView>
   </sheetViews>

--- a/docs/new_tests.xlsx
+++ b/docs/new_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\PycharmProjects\G82.T08.FP\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\PyCharmProjects\G82.T08.FP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81A136-2320-4AB1-8582-E6982E435E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F3873B-BC2C-4765-BD55-F46A1764FA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="-11640" windowWidth="20730" windowHeight="11160" tabRatio="573" xr2:uid="{91915A6D-C9D7-4EAF-B884-C2E71267B661}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="573" xr2:uid="{91915A6D-C9D7-4EAF-B884-C2E71267B661}"/>
   </bookViews>
   <sheets>
     <sheet name="revocation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -353,6 +353,36 @@
   </si>
   <si>
     <t>no existe esa clave</t>
+  </si>
+  <si>
+    <t>key_63_chars_revoke</t>
+  </si>
+  <si>
+    <t>key_65_chars_revoke</t>
+  </si>
+  <si>
+    <t>reason_100_chars_revoke</t>
+  </si>
+  <si>
+    <t>reason_101_chars_revoke</t>
+  </si>
+  <si>
+    <t>revocation_not_str_revoke</t>
+  </si>
+  <si>
+    <t>reason_1_char_revoke</t>
+  </si>
+  <si>
+    <t>reason_2_chars_revoke</t>
+  </si>
+  <si>
+    <t>reason_99_chars_revoke</t>
+  </si>
+  <si>
+    <t>reason_0_chars_revoke</t>
+  </si>
+  <si>
+    <t>equivalence class</t>
   </si>
 </sst>
 </file>
@@ -743,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323051EA-52F9-4192-96A8-C0728D622E20}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E50" sqref="E42:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1381,6 +1411,159 @@
       </c>
       <c r="D41" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
